--- a/坐标测试文件/test-xy-200-sheet.xlsx
+++ b/坐标测试文件/test-xy-200-sheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\坐标测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\坐标测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370B515-27DF-41DC-A991-1B03A54D33C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A18CF6-823F-4A9F-BA55-5BB2094DF7CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
     <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -456,16 +456,16 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" customWidth="1"/>
+    <col min="10" max="10" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -865,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -984,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -3909,9 +3909,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
